--- a/data/trans_camb/P1422-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1422-Habitat-trans_camb.xlsx
@@ -618,13 +618,13 @@
         <v>-0.2649222856934612</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5113089955181881</v>
+        <v>0.511308995518188</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>-0.1813458006384232</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.6131134864086606</v>
+        <v>0.6131134864086611</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.178639709108713</v>
+        <v>-1.112636610149747</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3768010854700065</v>
+        <v>-0.4433863146787461</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.047334068353326</v>
+        <v>-1.035671006318716</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.4190563230161663</v>
+        <v>-0.3471599552831679</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.774624673970879</v>
+        <v>-0.7788003898713023</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.06979473876931107</v>
+        <v>-0.08149954230214176</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8011628008857161</v>
+        <v>0.8347912881923772</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.98599384259544</v>
+        <v>1.999965508491143</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5598592100374383</v>
+        <v>0.500591110320456</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.261312243103329</v>
+        <v>1.252241544860793</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4857533783355983</v>
+        <v>0.400595285516099</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.350489799975581</v>
+        <v>1.312735842806967</v>
       </c>
     </row>
     <row r="7">
@@ -696,13 +696,13 @@
         <v>-0.4419519986501156</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.8529823450131275</v>
+        <v>0.8529823450131273</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2241997812763756</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7579988566952955</v>
+        <v>0.7579988566952962</v>
       </c>
     </row>
     <row r="8">
@@ -713,20 +713,20 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7504407156155565</v>
+        <v>-0.7586465355799713</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3189360003518931</v>
+        <v>-0.3849747445675775</v>
       </c>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.4230399150624782</v>
+        <v>-0.3999443987761335</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6993802935971615</v>
+        <v>-0.7202496351567864</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1177072899224801</v>
+        <v>-0.1533918527714036</v>
       </c>
     </row>
     <row r="9">
@@ -737,20 +737,20 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.960116651001198</v>
+        <v>1.574654340198965</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.836638962399055</v>
+        <v>3.430651197891613</v>
       </c>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>7.215876032025376</v>
+        <v>5.818886487535448</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.155926971538667</v>
+        <v>0.9840171481420031</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.668347648707275</v>
+        <v>2.665592173160602</v>
       </c>
     </row>
     <row r="10">
@@ -768,7 +768,7 @@
         <v>-0.6971833394112142</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3904494577767399</v>
+        <v>0.3904494577767401</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.0966342104216364</v>
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.494885983921068</v>
+        <v>-1.495185762415919</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5573907279364285</v>
+        <v>-0.5224769271109515</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6588624853067361</v>
+        <v>-0.6560717628541889</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.3801124497976757</v>
+        <v>-0.4868792982706995</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.8812146566299587</v>
+        <v>-0.8466842073016499</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.1942223894146489</v>
+        <v>-0.1805853025633791</v>
       </c>
     </row>
     <row r="12">
@@ -817,22 +817,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.09037882376353701</v>
+        <v>-0.1029818136606352</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.281183183247417</v>
+        <v>1.295787759984275</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.03568149934555</v>
+        <v>1.038802331490511</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.069630412846685</v>
+        <v>1.02354939680301</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2135273148871523</v>
+        <v>0.2256208091075814</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9598995623147126</v>
+        <v>0.9677192976080823</v>
       </c>
     </row>
     <row r="13">
@@ -846,7 +846,7 @@
         <v>-0.7035062850431791</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.3939905502756477</v>
+        <v>0.3939905502756478</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.1314353271684524</v>
@@ -869,22 +869,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9713294975582922</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4174739083707397</v>
+        <v>-0.437270969585011</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6508273552589602</v>
+        <v>-0.6780694630793088</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3694036203391172</v>
+        <v>-0.4344865083655008</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7232200507542432</v>
+        <v>-0.7005360856942748</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2135371118962292</v>
+        <v>-0.1969135852869597</v>
       </c>
     </row>
     <row r="15">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1514489264954794</v>
+        <v>0.3299086299144995</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.102384273779568</v>
+        <v>2.293783502704174</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.586139649645751</v>
+        <v>2.670338629415579</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.901426489081374</v>
+        <v>2.856379944620352</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4939731051630132</v>
+        <v>0.5449042248566366</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.649468048659695</v>
+        <v>1.627844576646041</v>
       </c>
     </row>
     <row r="16">
@@ -928,7 +928,7 @@
         <v>-0.3101418943055323</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.2871070037751453</v>
+        <v>0.2871070037751455</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>-0.4156347564172377</v>
@@ -951,22 +951,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.545210378222035</v>
+        <v>-1.521707659486973</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9154889096023414</v>
+        <v>-0.9140606931556707</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.191657695756472</v>
+        <v>-1.212891954311239</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.74460416687199</v>
+        <v>-0.6528257335338586</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.9651782418771562</v>
+        <v>-1.02528581374988</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.4916689031791077</v>
+        <v>-0.5056613767313656</v>
       </c>
     </row>
     <row r="18">
@@ -977,22 +977,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7121576538427514</v>
+        <v>0.6136876667770491</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.312348483877124</v>
+        <v>1.311258362874528</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1517340902863031</v>
+        <v>0.1813914065359247</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8767068845575675</v>
+        <v>0.8726549708690667</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2249538056517918</v>
+        <v>0.2669059562945155</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9025937860502884</v>
+        <v>0.8206725980934279</v>
       </c>
     </row>
     <row r="19">
@@ -1006,7 +1006,7 @@
         <v>-0.3261382947177298</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.301915317898</v>
+        <v>0.3019153178980001</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.7196483582022288</v>
@@ -1029,20 +1029,20 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.9367344925913743</v>
+        <v>-0.9069213844486856</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6071454174514206</v>
+        <v>-0.6172591047617626</v>
       </c>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.7181915612545585</v>
+        <v>-0.7019254511909849</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8420805374015157</v>
+        <v>-0.8638398984481096</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4304814672120804</v>
+        <v>-0.4450356599321474</v>
       </c>
     </row>
     <row r="21">
@@ -1053,20 +1053,20 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.590250351555421</v>
+        <v>2.41910795671595</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>4.459701149746381</v>
+        <v>3.929813671650475</v>
       </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>4.490240903028518</v>
+        <v>4.812360245215131</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9705820460895573</v>
+        <v>0.968456657515242</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.279772740361215</v>
+        <v>2.002520558849463</v>
       </c>
     </row>
     <row r="22">
@@ -1084,7 +1084,7 @@
         <v>-0.1696235851510559</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-0.1253080898949516</v>
+        <v>-0.1253080898949517</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-0.04537767307165597</v>
@@ -1096,7 +1096,7 @@
         <v>-0.1042455324576063</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.09203727552990706</v>
+        <v>0.09203727552990759</v>
       </c>
     </row>
     <row r="23">
@@ -1107,22 +1107,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.18173480689639</v>
+        <v>-1.155579837658208</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.236431940274398</v>
+        <v>-1.099502325886701</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.8049973733077584</v>
+        <v>-0.8002591290367126</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.5620127892028498</v>
+        <v>-0.532518661460045</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.6897666556105025</v>
+        <v>-0.6685720160408611</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.459692444648776</v>
+        <v>-0.4825436940264309</v>
       </c>
     </row>
     <row r="24">
@@ -1133,22 +1133,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7514909464463784</v>
+        <v>0.5906742457822507</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6150695648670187</v>
+        <v>0.6547655435088061</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9257828948507891</v>
+        <v>0.8613478414938771</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9606857488924427</v>
+        <v>0.9779606020270408</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5271615572652077</v>
+        <v>0.5368827459797622</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6294271988814697</v>
+        <v>0.6431629982842111</v>
       </c>
     </row>
     <row r="25">
@@ -1162,7 +1162,7 @@
         <v>-0.1751251773764035</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.1293723478961328</v>
+        <v>-0.1293723478961329</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.0521858035613413</v>
@@ -1174,7 +1174,7 @@
         <v>-0.113745181190122</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1004244146928006</v>
+        <v>0.1004244146928012</v>
       </c>
     </row>
     <row r="26">
@@ -1185,22 +1185,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7337736424727597</v>
+        <v>-0.7327230095774603</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7168464970849683</v>
+        <v>-0.7031119999733102</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6983072782269825</v>
+        <v>-0.7085485765083293</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4331935169927874</v>
+        <v>-0.4335626271760225</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5639348111327686</v>
+        <v>-0.5658347703662289</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3754062368802102</v>
+        <v>-0.3963011147068357</v>
       </c>
     </row>
     <row r="27">
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.018200522303689</v>
+        <v>1.605752784360001</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.404542270218045</v>
+        <v>1.512976870625311</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.331437619334551</v>
+        <v>1.882116247736428</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.363973942172858</v>
+        <v>2.037255603070314</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8765670453045884</v>
+        <v>0.8928356921874057</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.132752845408225</v>
+        <v>1.080471544854054</v>
       </c>
     </row>
     <row r="28">
@@ -1256,7 +1256,7 @@
         <v>-0.2344731490998059</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.3050941131688467</v>
+        <v>0.3050941131688465</v>
       </c>
     </row>
     <row r="29">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.8132001673499796</v>
+        <v>-0.8256547437010973</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.1915374878450309</v>
+        <v>-0.2697382185344522</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.5901637447123677</v>
+        <v>-0.6281537296314704</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.06804838115613478</v>
+        <v>-0.10734922337867</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.5393016148542279</v>
+        <v>-0.5259577696429629</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.02740951735896684</v>
+        <v>-0.01194261793520275</v>
       </c>
     </row>
     <row r="30">
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.07923067570255415</v>
+        <v>0.07506038788027834</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7738633563370576</v>
+        <v>0.7954248149147578</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3203079899894984</v>
+        <v>0.2593299657590377</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.7054446781214415</v>
+        <v>0.7101208763425152</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.06733303314612704</v>
+        <v>0.06530030533036742</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.6307066064927467</v>
+        <v>0.613160327428001</v>
       </c>
     </row>
     <row r="31">
@@ -1334,7 +1334,7 @@
         <v>-0.2774634443025619</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3610326547038042</v>
+        <v>0.361032654703804</v>
       </c>
     </row>
     <row r="32">
@@ -1345,22 +1345,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6404280859991502</v>
+        <v>-0.6472112824422264</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1618241286062542</v>
+        <v>-0.2594336041316855</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6210198606286039</v>
+        <v>-0.6374609813392881</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.08807414362342987</v>
+        <v>-0.1222820552083796</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5236383564887719</v>
+        <v>-0.5137077277191593</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.02733084962915587</v>
+        <v>-0.02772181682839734</v>
       </c>
     </row>
     <row r="33">
@@ -1371,22 +1371,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.134014749941103</v>
+        <v>0.148636444914122</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.082836096622089</v>
+        <v>1.050330620877959</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6469349644023793</v>
+        <v>0.5132202120190813</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.3309188404248</v>
+        <v>1.324710467079105</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1134895211929225</v>
+        <v>0.09917268846454805</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.942123893069184</v>
+        <v>0.8993896110145234</v>
       </c>
     </row>
     <row r="34">
